--- a/biology/Médecine/1588_en_santé_et_médecine/1588_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1588_en_santé_et_médecine/1588_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1588_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1588_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1588 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1588_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1588_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Joachim Camerarius le Jeune (1534-1598) fait imprimer à Francfort, chez Johann Feherabend, son Hortus medicus et philosophicus[1],[2].
-Gaspard Bauhin traduit en latin le Nouveau traité de l'hystérotokomotokie ou enfantement césarien (1581) de François Rousset (1535-1598[3],[4]).
-Brice Bauderon (1540-1623) fait paraître  une « Pharmacopée[5],[6] » promise à « un extraordinaire succès de librairie[7] ».
-Parution de la Nosomantica Hyppocratea de Thomas Muffet (1553-1604[8]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Joachim Camerarius le Jeune (1534-1598) fait imprimer à Francfort, chez Johann Feherabend, son Hortus medicus et philosophicus,.
+Gaspard Bauhin traduit en latin le Nouveau traité de l'hystérotokomotokie ou enfantement césarien (1581) de François Rousset (1535-1598,).
+Brice Bauderon (1540-1623) fait paraître  une « Pharmacopée, » promise à « un extraordinaire succès de librairie ».
+Parution de la Nosomantica Hyppocratea de Thomas Muffet (1553-1604).</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1588_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1588_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>21 janvier : Jean-Jacques Chifflet (mort en 1660), médecin, antiquaire et archéologue français[9].
-13 mai : Ole Worm (mort en 1654), médecin et collectionneur danois[10].
-10 décembre : Isaac Beeckman (mort en 1637), médecin, mathématicien, physicien et philosophe néerlandais[11].
-Bartolomeo Ambrosini (mort en 1657), médecin et botaniste italien[12].
-Pierre-Jean Fabre (mort en 1658), médecin et alchimiste français[13].
-1588 ou 1603 : Adrian von Mynsicht (mort en 1638), médecin et pharmacien spagyrique allemand[14],[15].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21 janvier : Jean-Jacques Chifflet (mort en 1660), médecin, antiquaire et archéologue français.
+13 mai : Ole Worm (mort en 1654), médecin et collectionneur danois.
+10 décembre : Isaac Beeckman (mort en 1637), médecin, mathématicien, physicien et philosophe néerlandais.
+Bartolomeo Ambrosini (mort en 1657), médecin et botaniste italien.
+Pierre-Jean Fabre (mort en 1658), médecin et alchimiste français.
+1588 ou 1603 : Adrian von Mynsicht (mort en 1638), médecin et pharmacien spagyrique allemand,.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1588_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1588_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,21 +595,23 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24 février : Jean Wier (né en 1515 ou 1516), médecin flamand[16].
-1er mars : Jacques Daléchamps (né en 1513), médecin, botaniste et helléniste français, élève de Guillaume Rondelet (1507-1566) et de Jean Schyron († 1556), médecin de l'Hôtel-Dieu de Lyon[17],[18].
-10 mars : Theodor Zwinger l'Ancien (né en 1533), savant et médecin suisse[19].
-5 mai : Giorgio Biandrata (né vers 1520), médecin et réformateur religieux italien[20].
-Johann Aicholz (de) (né vers 1520), médecin et botaniste autrichien[21].
-Auger Ferrier (né en 1513), médecin et astrologue français[22].
-Leonardo Fioravanti (né vers 1517), médecin italien[23].
-Juan Huarte (né vers 1530), médecin et philosophe espagnol[24].
-Julien Le Paulmier (né en 1520), médecin français[25].
-Nicolas Monardes (né vers 1493), médecin et botaniste espagnol[26],[27].
-Vers 1588 : Thomas Penny (né vers 1532), médecin et naturaliste anglais[28].
-1587 ou 1588 : Juan Valverde de Amusco (en) (né en 1525), anatomiste espagnol[29],[30].
-Après 1588 : Pierre Quthe (né en 1519), apothicaire parisien[31].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 février : Jean Wier (né en 1515 ou 1516), médecin flamand.
+1er mars : Jacques Daléchamps (né en 1513), médecin, botaniste et helléniste français, élève de Guillaume Rondelet (1507-1566) et de Jean Schyron († 1556), médecin de l'Hôtel-Dieu de Lyon,.
+10 mars : Theodor Zwinger l'Ancien (né en 1533), savant et médecin suisse.
+5 mai : Giorgio Biandrata (né vers 1520), médecin et réformateur religieux italien.
+Johann Aicholz (de) (né vers 1520), médecin et botaniste autrichien.
+Auger Ferrier (né en 1513), médecin et astrologue français.
+Leonardo Fioravanti (né vers 1517), médecin italien.
+Juan Huarte (né vers 1530), médecin et philosophe espagnol.
+Julien Le Paulmier (né en 1520), médecin français.
+Nicolas Monardes (né vers 1493), médecin et botaniste espagnol,.
+Vers 1588 : Thomas Penny (né vers 1532), médecin et naturaliste anglais.
+1587 ou 1588 : Juan Valverde de Amusco (en) (né en 1525), anatomiste espagnol,.
+Après 1588 : Pierre Quthe (né en 1519), apothicaire parisien.</t>
         </is>
       </c>
     </row>
